--- a/análisis/Actores/Actor_Sitio_anunciante.xlsx
+++ b/análisis/Actores/Actor_Sitio_anunciante.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Actor</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Andrés Vega Yáñez</t>
+  </si>
+  <si>
+    <t>VersionAPI</t>
+  </si>
+  <si>
+    <t>Número o nombre de la versión de la api utilizada</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -496,6 +505,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -503,58 +551,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -571,19 +567,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -640,15 +623,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -656,76 +637,68 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1025,21 +998,21 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -1048,10 +1021,10 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -1060,144 +1033,120 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>42113</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-    </row>
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
+  <mergeCells count="12">
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
